--- a/ChartBuilder/Files/Standing Shoulder Press M0.xlsx
+++ b/ChartBuilder/Files/Standing Shoulder Press M0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akhilesh Pc\Documents\Git\Kotlin\ChartBuilder\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF66D80-7383-416B-9973-BD47EB929270}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE3D399-DA73-4CE5-B220-EE97668B4B9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22118" windowHeight="8536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>WEEK 1</t>
   </si>
@@ -76,13 +76,22 @@
     <t>27.648000000000003 x 5+</t>
   </si>
   <si>
-    <t>4.5x1, 2.3x1</t>
-  </si>
-  <si>
-    <t>4.5x2</t>
-  </si>
-  <si>
-    <t>4.5x2, 2.x1</t>
+    <t>4.5x1, 2.3x2</t>
+  </si>
+  <si>
+    <t>11.3x2, 2.3x1</t>
+  </si>
+  <si>
+    <t>11.3x1</t>
+  </si>
+  <si>
+    <t>1x4.5, 1x2.3</t>
+  </si>
+  <si>
+    <t>2x4.5</t>
+  </si>
+  <si>
+    <t>2x4.5, 1x2.3</t>
   </si>
 </sst>
 </file>
@@ -437,7 +446,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,7 +468,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -470,7 +479,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -481,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -525,6 +534,9 @@
       <c r="C14" t="s">
         <v>4</v>
       </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
@@ -533,6 +545,9 @@
       <c r="C15" t="s">
         <v>12</v>
       </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
@@ -540,6 +555,9 @@
       </c>
       <c r="C16" t="s">
         <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
